--- a/src/game/tools/rpc/input/ServerGWCmds.xlsx
+++ b/src/game/tools/rpc/input/ServerGWCmds.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\goproj\src\game\tools\rpc\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>opcode</t>
   </si>
@@ -62,86 +70,33 @@
   <si>
     <t>登录(ptID平台）</t>
   </si>
-  <si>
-    <t>BIND_ACCOUNT</t>
-  </si>
-  <si>
-    <t>BindAccount</t>
-  </si>
-  <si>
-    <t>long uid,string ptID, string ptData</t>
-  </si>
-  <si>
-    <t>注册用户</t>
-  </si>
-  <si>
-    <t>CS_PONG</t>
-  </si>
-  <si>
-    <t>CS_Pong</t>
-  </si>
-  <si>
-    <t>cs_pong</t>
-  </si>
-  <si>
-    <t>CS_LOGINRSP</t>
-  </si>
-  <si>
-    <t>CS_LoginRsp</t>
-  </si>
-  <si>
-    <t>bool suc ,long uid, string accName</t>
-  </si>
-  <si>
-    <t>cs_login_resp</t>
-  </si>
-  <si>
-    <t>BROADCAST</t>
-  </si>
-  <si>
-    <t>Broadcast</t>
-  </si>
-  <si>
-    <t>广播消息（不定义参数格式，实际参数与广播的消息协议参数一致）</t>
-  </si>
-  <si>
-    <t>KICK_OFFLINE</t>
-  </si>
-  <si>
-    <t>KickOffLine</t>
-  </si>
-  <si>
-    <t>long sid</t>
-  </si>
-  <si>
-    <t>踢用户下线</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +107,11 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -223,77 +183,148 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -419,7 +450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -511,7 +542,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -519,7 +550,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -538,7 +569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -568,7 +599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -594,7 +625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -620,7 +651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -646,7 +677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,7 +703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -698,7 +729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -724,7 +755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -750,7 +781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -776,7 +807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,9 +820,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -806,7 +843,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -814,7 +851,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -833,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -963,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -989,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1015,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1041,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1080,9 +1117,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1096,7 +1139,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1115,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1171,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1344,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1370,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1396,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1366,182 +1409,362 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="13.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="95.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6719" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.67188" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.7" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" s="14" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.05" customHeight="1">
-      <c r="A2" s="5">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13"/>
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13"/>
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13"/>
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13"/>
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13"/>
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13"/>
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13"/>
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13"/>
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13"/>
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13"/>
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13"/>
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13"/>
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13"/>
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13"/>
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13"/>
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13"/>
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13"/>
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13"/>
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13"/>
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13"/>
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13"/>
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13"/>
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13"/>
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13"/>
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
+      <c r="IO1" s="13"/>
+      <c r="IP1" s="13"/>
+      <c r="IQ1" s="13"/>
+      <c r="IR1" s="13"/>
+      <c r="IS1" s="13"/>
+      <c r="IT1" s="13"/>
+      <c r="IU1" s="13"/>
+      <c r="IV1" s="13"/>
+    </row>
+    <row r="2" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" t="s" s="6">
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
         <v>10001</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>10002</v>
       </c>
-      <c r="B4" t="s" s="9">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1">
-      <c r="A5" s="8">
-        <v>10003</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="16.05" customHeight="1">
-      <c r="A6" s="8">
-        <v>20001</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" t="s" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="13.7" customHeight="1">
-      <c r="A7" s="8">
-        <v>20002</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="16.05" customHeight="1">
-      <c r="A8" s="8">
-        <v>20003</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" t="s" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="16.05" customHeight="1">
-      <c r="A9" s="8">
-        <v>20004</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s" s="9">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1549,94 +1772,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="13.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="256" width="8.67188" style="11" customWidth="1"/>
+    <col min="1" max="5" width="8.875" style="8" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" ht="16.05" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="16.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="16.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="16.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="16.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="16.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="16.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="16.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="16.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1644,94 +1864,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66667" defaultRowHeight="13.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="12" customWidth="1"/>
-    <col min="6" max="256" width="8.67188" style="12" customWidth="1"/>
+    <col min="1" max="5" width="8.875" style="9" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" ht="16.05" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="16.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="16.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="16.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="16.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="16.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="16.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="16.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="16.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+    <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/game/tools/rpc/input/ServerGWCmds.xlsx
+++ b/src/game/tools/rpc/input/ServerGWCmds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>opcode</t>
   </si>
@@ -70,12 +70,16 @@
   <si>
     <t>登录(ptID平台）</t>
   </si>
+  <si>
+    <t>PlayerWrap player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -93,6 +97,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -204,9 +214,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +242,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1431,7 +1441,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1444,273 +1454,273 @@
     <col min="6" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="14" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:256" s="13" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
-      <c r="BN1" s="13"/>
-      <c r="BO1" s="13"/>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13"/>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
-      <c r="CX1" s="13"/>
-      <c r="CY1" s="13"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
-      <c r="DB1" s="13"/>
-      <c r="DC1" s="13"/>
-      <c r="DD1" s="13"/>
-      <c r="DE1" s="13"/>
-      <c r="DF1" s="13"/>
-      <c r="DG1" s="13"/>
-      <c r="DH1" s="13"/>
-      <c r="DI1" s="13"/>
-      <c r="DJ1" s="13"/>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
-      <c r="DV1" s="13"/>
-      <c r="DW1" s="13"/>
-      <c r="DX1" s="13"/>
-      <c r="DY1" s="13"/>
-      <c r="DZ1" s="13"/>
-      <c r="EA1" s="13"/>
-      <c r="EB1" s="13"/>
-      <c r="EC1" s="13"/>
-      <c r="ED1" s="13"/>
-      <c r="EE1" s="13"/>
-      <c r="EF1" s="13"/>
-      <c r="EG1" s="13"/>
-      <c r="EH1" s="13"/>
-      <c r="EI1" s="13"/>
-      <c r="EJ1" s="13"/>
-      <c r="EK1" s="13"/>
-      <c r="EL1" s="13"/>
-      <c r="EM1" s="13"/>
-      <c r="EN1" s="13"/>
-      <c r="EO1" s="13"/>
-      <c r="EP1" s="13"/>
-      <c r="EQ1" s="13"/>
-      <c r="ER1" s="13"/>
-      <c r="ES1" s="13"/>
-      <c r="ET1" s="13"/>
-      <c r="EU1" s="13"/>
-      <c r="EV1" s="13"/>
-      <c r="EW1" s="13"/>
-      <c r="EX1" s="13"/>
-      <c r="EY1" s="13"/>
-      <c r="EZ1" s="13"/>
-      <c r="FA1" s="13"/>
-      <c r="FB1" s="13"/>
-      <c r="FC1" s="13"/>
-      <c r="FD1" s="13"/>
-      <c r="FE1" s="13"/>
-      <c r="FF1" s="13"/>
-      <c r="FG1" s="13"/>
-      <c r="FH1" s="13"/>
-      <c r="FI1" s="13"/>
-      <c r="FJ1" s="13"/>
-      <c r="FK1" s="13"/>
-      <c r="FL1" s="13"/>
-      <c r="FM1" s="13"/>
-      <c r="FN1" s="13"/>
-      <c r="FO1" s="13"/>
-      <c r="FP1" s="13"/>
-      <c r="FQ1" s="13"/>
-      <c r="FR1" s="13"/>
-      <c r="FS1" s="13"/>
-      <c r="FT1" s="13"/>
-      <c r="FU1" s="13"/>
-      <c r="FV1" s="13"/>
-      <c r="FW1" s="13"/>
-      <c r="FX1" s="13"/>
-      <c r="FY1" s="13"/>
-      <c r="FZ1" s="13"/>
-      <c r="GA1" s="13"/>
-      <c r="GB1" s="13"/>
-      <c r="GC1" s="13"/>
-      <c r="GD1" s="13"/>
-      <c r="GE1" s="13"/>
-      <c r="GF1" s="13"/>
-      <c r="GG1" s="13"/>
-      <c r="GH1" s="13"/>
-      <c r="GI1" s="13"/>
-      <c r="GJ1" s="13"/>
-      <c r="GK1" s="13"/>
-      <c r="GL1" s="13"/>
-      <c r="GM1" s="13"/>
-      <c r="GN1" s="13"/>
-      <c r="GO1" s="13"/>
-      <c r="GP1" s="13"/>
-      <c r="GQ1" s="13"/>
-      <c r="GR1" s="13"/>
-      <c r="GS1" s="13"/>
-      <c r="GT1" s="13"/>
-      <c r="GU1" s="13"/>
-      <c r="GV1" s="13"/>
-      <c r="GW1" s="13"/>
-      <c r="GX1" s="13"/>
-      <c r="GY1" s="13"/>
-      <c r="GZ1" s="13"/>
-      <c r="HA1" s="13"/>
-      <c r="HB1" s="13"/>
-      <c r="HC1" s="13"/>
-      <c r="HD1" s="13"/>
-      <c r="HE1" s="13"/>
-      <c r="HF1" s="13"/>
-      <c r="HG1" s="13"/>
-      <c r="HH1" s="13"/>
-      <c r="HI1" s="13"/>
-      <c r="HJ1" s="13"/>
-      <c r="HK1" s="13"/>
-      <c r="HL1" s="13"/>
-      <c r="HM1" s="13"/>
-      <c r="HN1" s="13"/>
-      <c r="HO1" s="13"/>
-      <c r="HP1" s="13"/>
-      <c r="HQ1" s="13"/>
-      <c r="HR1" s="13"/>
-      <c r="HS1" s="13"/>
-      <c r="HT1" s="13"/>
-      <c r="HU1" s="13"/>
-      <c r="HV1" s="13"/>
-      <c r="HW1" s="13"/>
-      <c r="HX1" s="13"/>
-      <c r="HY1" s="13"/>
-      <c r="HZ1" s="13"/>
-      <c r="IA1" s="13"/>
-      <c r="IB1" s="13"/>
-      <c r="IC1" s="13"/>
-      <c r="ID1" s="13"/>
-      <c r="IE1" s="13"/>
-      <c r="IF1" s="13"/>
-      <c r="IG1" s="13"/>
-      <c r="IH1" s="13"/>
-      <c r="II1" s="13"/>
-      <c r="IJ1" s="13"/>
-      <c r="IK1" s="13"/>
-      <c r="IL1" s="13"/>
-      <c r="IM1" s="13"/>
-      <c r="IN1" s="13"/>
-      <c r="IO1" s="13"/>
-      <c r="IP1" s="13"/>
-      <c r="IQ1" s="13"/>
-      <c r="IR1" s="13"/>
-      <c r="IS1" s="13"/>
-      <c r="IT1" s="13"/>
-      <c r="IU1" s="13"/>
-      <c r="IV1" s="13"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="12"/>
+      <c r="CX1" s="12"/>
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="12"/>
+      <c r="DC1" s="12"/>
+      <c r="DD1" s="12"/>
+      <c r="DE1" s="12"/>
+      <c r="DF1" s="12"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12"/>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="12"/>
+      <c r="DL1" s="12"/>
+      <c r="DM1" s="12"/>
+      <c r="DN1" s="12"/>
+      <c r="DO1" s="12"/>
+      <c r="DP1" s="12"/>
+      <c r="DQ1" s="12"/>
+      <c r="DR1" s="12"/>
+      <c r="DS1" s="12"/>
+      <c r="DT1" s="12"/>
+      <c r="DU1" s="12"/>
+      <c r="DV1" s="12"/>
+      <c r="DW1" s="12"/>
+      <c r="DX1" s="12"/>
+      <c r="DY1" s="12"/>
+      <c r="DZ1" s="12"/>
+      <c r="EA1" s="12"/>
+      <c r="EB1" s="12"/>
+      <c r="EC1" s="12"/>
+      <c r="ED1" s="12"/>
+      <c r="EE1" s="12"/>
+      <c r="EF1" s="12"/>
+      <c r="EG1" s="12"/>
+      <c r="EH1" s="12"/>
+      <c r="EI1" s="12"/>
+      <c r="EJ1" s="12"/>
+      <c r="EK1" s="12"/>
+      <c r="EL1" s="12"/>
+      <c r="EM1" s="12"/>
+      <c r="EN1" s="12"/>
+      <c r="EO1" s="12"/>
+      <c r="EP1" s="12"/>
+      <c r="EQ1" s="12"/>
+      <c r="ER1" s="12"/>
+      <c r="ES1" s="12"/>
+      <c r="ET1" s="12"/>
+      <c r="EU1" s="12"/>
+      <c r="EV1" s="12"/>
+      <c r="EW1" s="12"/>
+      <c r="EX1" s="12"/>
+      <c r="EY1" s="12"/>
+      <c r="EZ1" s="12"/>
+      <c r="FA1" s="12"/>
+      <c r="FB1" s="12"/>
+      <c r="FC1" s="12"/>
+      <c r="FD1" s="12"/>
+      <c r="FE1" s="12"/>
+      <c r="FF1" s="12"/>
+      <c r="FG1" s="12"/>
+      <c r="FH1" s="12"/>
+      <c r="FI1" s="12"/>
+      <c r="FJ1" s="12"/>
+      <c r="FK1" s="12"/>
+      <c r="FL1" s="12"/>
+      <c r="FM1" s="12"/>
+      <c r="FN1" s="12"/>
+      <c r="FO1" s="12"/>
+      <c r="FP1" s="12"/>
+      <c r="FQ1" s="12"/>
+      <c r="FR1" s="12"/>
+      <c r="FS1" s="12"/>
+      <c r="FT1" s="12"/>
+      <c r="FU1" s="12"/>
+      <c r="FV1" s="12"/>
+      <c r="FW1" s="12"/>
+      <c r="FX1" s="12"/>
+      <c r="FY1" s="12"/>
+      <c r="FZ1" s="12"/>
+      <c r="GA1" s="12"/>
+      <c r="GB1" s="12"/>
+      <c r="GC1" s="12"/>
+      <c r="GD1" s="12"/>
+      <c r="GE1" s="12"/>
+      <c r="GF1" s="12"/>
+      <c r="GG1" s="12"/>
+      <c r="GH1" s="12"/>
+      <c r="GI1" s="12"/>
+      <c r="GJ1" s="12"/>
+      <c r="GK1" s="12"/>
+      <c r="GL1" s="12"/>
+      <c r="GM1" s="12"/>
+      <c r="GN1" s="12"/>
+      <c r="GO1" s="12"/>
+      <c r="GP1" s="12"/>
+      <c r="GQ1" s="12"/>
+      <c r="GR1" s="12"/>
+      <c r="GS1" s="12"/>
+      <c r="GT1" s="12"/>
+      <c r="GU1" s="12"/>
+      <c r="GV1" s="12"/>
+      <c r="GW1" s="12"/>
+      <c r="GX1" s="12"/>
+      <c r="GY1" s="12"/>
+      <c r="GZ1" s="12"/>
+      <c r="HA1" s="12"/>
+      <c r="HB1" s="12"/>
+      <c r="HC1" s="12"/>
+      <c r="HD1" s="12"/>
+      <c r="HE1" s="12"/>
+      <c r="HF1" s="12"/>
+      <c r="HG1" s="12"/>
+      <c r="HH1" s="12"/>
+      <c r="HI1" s="12"/>
+      <c r="HJ1" s="12"/>
+      <c r="HK1" s="12"/>
+      <c r="HL1" s="12"/>
+      <c r="HM1" s="12"/>
+      <c r="HN1" s="12"/>
+      <c r="HO1" s="12"/>
+      <c r="HP1" s="12"/>
+      <c r="HQ1" s="12"/>
+      <c r="HR1" s="12"/>
+      <c r="HS1" s="12"/>
+      <c r="HT1" s="12"/>
+      <c r="HU1" s="12"/>
+      <c r="HV1" s="12"/>
+      <c r="HW1" s="12"/>
+      <c r="HX1" s="12"/>
+      <c r="HY1" s="12"/>
+      <c r="HZ1" s="12"/>
+      <c r="IA1" s="12"/>
+      <c r="IB1" s="12"/>
+      <c r="IC1" s="12"/>
+      <c r="ID1" s="12"/>
+      <c r="IE1" s="12"/>
+      <c r="IF1" s="12"/>
+      <c r="IG1" s="12"/>
+      <c r="IH1" s="12"/>
+      <c r="II1" s="12"/>
+      <c r="IJ1" s="12"/>
+      <c r="IK1" s="12"/>
+      <c r="IL1" s="12"/>
+      <c r="IM1" s="12"/>
+      <c r="IN1" s="12"/>
+      <c r="IO1" s="12"/>
+      <c r="IP1" s="12"/>
+      <c r="IQ1" s="12"/>
+      <c r="IR1" s="12"/>
+      <c r="IS1" s="12"/>
+      <c r="IT1" s="12"/>
+      <c r="IU1" s="12"/>
+      <c r="IV1" s="12"/>
     </row>
     <row r="2" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
@@ -1722,42 +1732,44 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>10001</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:256" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>10002</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1779,79 +1791,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.875" style="8" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="8" customWidth="1"/>
+    <col min="1" max="5" width="8.875" style="7" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1871,79 +1883,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="8.875" style="9" customWidth="1"/>
-    <col min="6" max="256" width="8.625" style="9" customWidth="1"/>
+    <col min="1" max="5" width="8.875" style="8" customWidth="1"/>
+    <col min="6" max="256" width="8.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
